--- a/data/long_dif/P23_11-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_11-Edad-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10,3%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7,12%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8,54%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,23%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,79%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,2; 17,96</t>
+          <t>4,31; 16,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 10,91</t>
+          <t>1,13; 11,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,87; 14,69</t>
+          <t>0,0; 12,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 13,15</t>
+          <t>5,62; 26,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,22; 14,6</t>
+          <t>3,74; 14,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 9,62</t>
+          <t>3,95; 13,64</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5,38; 18,03</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1,94; 16,99</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5,26; 13,79</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3,68; 10,12</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3,89; 12,7</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5,04; 17,71</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,14%</t>
+          <t>82,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>89,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>80,49%</t>
+          <t>81,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>83,27%</t>
+          <t>75,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>81,33%</t>
+          <t>81,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>87,51%</t>
+          <t>83,31%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>76,3%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>84,85%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>82,15%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>86,37%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>78,75%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>79,77%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>73,16; 89,4</t>
+          <t>74,83; 90,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,89; 96,25</t>
+          <t>80,23; 95,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>72,08; 87,35</t>
+          <t>68,6; 90,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>76,09; 88,95</t>
+          <t>60,38; 85,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>74,88; 86,84</t>
+          <t>72,85; 88,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,09; 91,1</t>
+          <t>75,66; 88,87</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>66,01; 84,29</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>74,16; 93,6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>75,48; 86,51</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>80,56; 90,72</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>70,79; 85,52</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>70,69; 87,66</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>8,85%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13,4%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9,31%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14,02%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10,44%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 15,92</t>
+          <t>3,35; 14,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 9,93</t>
+          <t>1,95; 15,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,6; 18,5</t>
+          <t>6,78; 28,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 15,05</t>
+          <t>4,3; 25,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 14,36</t>
+          <t>5,97; 18,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,94; 10,47</t>
+          <t>4,79; 14,83</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7,51; 23,55</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,83; 17,83</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 14,77</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 12,47</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8,78; 21,16</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5,11; 18,04</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 15,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 10,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,55; 27,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,88; 15,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,92; 19,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 11,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>84,76%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>78,14%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>68,93%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>71,79%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>77,47%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>75,15%</t>
+          <t>10,87%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18,24%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,84%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13,64%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,28%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>16,3%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,47; 91,03</t>
+          <t>4,39; 15,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>68,01; 85,92</t>
+          <t>2,69; 10,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>60,44; 77,16</t>
+          <t>5,27; 40,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>65,02; 78,14</t>
+          <t>0,0; 15,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>71,45; 82,67</t>
+          <t>12,45; 27,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>69,15; 80,79</t>
+          <t>6,75; 15,93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12,66; 25,67</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5,46; 18,29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9,2; 18,68</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,38; 11,58</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>10,58; 29,7</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3,87; 13,01</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>85,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>77,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>61,15%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>74,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>69,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>71,89%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>68,45%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>67,04%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>77,72%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>74,91%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>64,45%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>70,74%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,74; 11,94</t>
+          <t>77,38; 90,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,02; 26,51</t>
+          <t>66,9; 86,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,8; 18,18</t>
+          <t>38,79; 79,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,16; 23,45</t>
+          <t>54,21; 88,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,47; 12,53</t>
+          <t>59,81; 77,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,04; 23,15</t>
+          <t>65,32; 77,47</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>57,67; 76,19</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>56,81; 75,99</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>72,03; 83,05</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>68,74; 80,2</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>48,31; 74,25</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>60,13; 80,45</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>17,24%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>13,32%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>22,12%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8,64%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>16,8%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>19,25%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>21,71%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,74; 35,42</t>
+          <t>2,69; 11,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,83; 16,66</t>
+          <t>9,16; 27,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,77; 26,64</t>
+          <t>9,58; 52,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,56; 21,86</t>
+          <t>9,87; 42,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,7; 28,39</t>
+          <t>7,03; 19,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,64; 17,16</t>
+          <t>11,99; 23,31</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8,45; 20,69</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14,29; 30,73</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 12,93</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>12,5; 23,15</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>11,14; 40,9</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13,98; 31,74</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>67,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>77,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>58,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>65,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>62,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>71,3%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>54,98; 76,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>70,66; 84,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>51,99; 66,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>59,82; 70,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>56,26; 68,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>66,36; 75,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>16,53%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>15,79%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>13,05%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>20,87%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>13,44%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>14,36%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>13,02%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,24; 17,0</t>
+          <t>14,02; 36,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,9; 17,92</t>
+          <t>6,2; 16,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>15,26; 27,03</t>
+          <t>7,82; 19,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,07; 23,17</t>
+          <t>7,29; 21,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,35; 20,38</t>
+          <t>15,29; 26,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,13; 18,9</t>
+          <t>12,4; 21,5</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>11,52; 20,94</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>7,42; 20,31</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>16,42; 28,75</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>10,21; 17,32</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>11,08; 18,59</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>8,8; 18,29</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>68,44%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>78,39%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>69,8%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>63,78%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>58,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>64,73%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>68,27%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>61,48%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>63,15%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>71,3%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>68,98%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>62,72%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>10,72; 28,9</t>
+          <t>53,09; 77,12</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>8,64; 22,85</t>
+          <t>71,33; 84,03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>11,66; 21,91</t>
+          <t>61,94; 77,06</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>12,8; 21,99</t>
+          <t>53,56; 73,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>12,56; 22,45</t>
+          <t>51,91; 65,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,17; 20,67</t>
+          <t>58,66; 70,28</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>61,84; 73,73</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>51,52; 70,98</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>56,26; 68,61</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>66,02; 75,09</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>64,31; 73,74</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>55,49; 69,85</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>70,21%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>75,28%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>58,2%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>56,73%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>63,9%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>65,45%</t>
+          <t>18,74%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>15,95%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>25,47%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>15,98%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>15,26%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>16,66%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>24,27%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>60,88; 77,8</t>
+          <t>6,02; 16,93</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>66,63; 80,94</t>
+          <t>7,61; 17,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>51,78; 65,74</t>
+          <t>11,88; 24,62</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>50,26; 62,38</t>
+          <t>15,21; 33,24</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>58,48; 69,45</t>
+          <t>15,84; 27,35</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>60,07; 70,02</t>
+          <t>14,55; 23,93</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>11,63; 21,21</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>17,18; 34,57</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>12,14; 20,1</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>12,36; 18,96</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>12,89; 21,05</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>18,31; 31,09</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,74 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>8,83; 19,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>7,47; 16,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>19,92; 31,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>21,13; 31,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>15,84; 24,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>15,56; 22,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>16,82%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>19,74%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>21,35%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>16,02%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>15,36%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>17,21%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>21,46%</t>
         </is>
       </c>
     </row>
@@ -1567,32 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>10,11; 24,01</t>
+          <t>10,45; 27,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6,19; 15,12</t>
+          <t>8,45; 24,97</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11,07; 23,78</t>
+          <t>9,26; 21,33</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>11,64; 23,14</t>
+          <t>13,27; 35,65</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>11,63; 20,91</t>
+          <t>11,54; 21,7</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>10,24; 17,2</t>
+          <t>12,81; 21,93</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>14,24; 25,3</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>14,32; 29,96</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>12,36; 22,81</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>12,13; 20,98</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>13,64; 21,39</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>15,68; 29,21</t>
         </is>
       </c>
     </row>
@@ -1600,37 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>72,26%</t>
+          <t>71,24%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>77,89%</t>
+          <t>74,92%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>69,27%</t>
+          <t>61,62%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>65,23%</t>
+          <t>58,24%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>70,76%</t>
+          <t>57,76%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>71,38%</t>
+          <t>56,89%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>57,97%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>57,83%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>64,18%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>65,4%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>59,79%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>58,05%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>63,81; 79,77</t>
+          <t>61,03; 78,05</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>70,54; 84,38</t>
+          <t>65,98; 81,16</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>60,93; 77,57</t>
+          <t>48,43; 70,12</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>58,56; 71,72</t>
+          <t>45,7; 67,73</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>64,79; 76,37</t>
+          <t>51,07; 65,22</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>66,29; 76,26</t>
+          <t>51,02; 63,03</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>50,38; 64,8</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>48,47; 67,13</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>58,18; 68,93</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>60,2; 69,5</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>53,02; 65,29</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>50,71; 64,87</t>
         </is>
       </c>
     </row>
@@ -1676,37 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>23,71%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>26,3%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>22,29%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>20,81%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>19,8%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>19,24%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>23,0%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>20,49%</t>
         </is>
       </c>
     </row>
@@ -1719,74 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>7,48; 18,57</t>
+          <t>8,4; 18,98</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>7,42; 19,62</t>
+          <t>7,19; 17,09</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>8,22; 20,8</t>
+          <t>15,77; 41,16</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>12,73; 23,99</t>
+          <t>12,47; 29,53</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>9,8; 17,98</t>
+          <t>20,3; 32,33</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>11,68; 20,59</t>
+          <t>20,95; 31,87</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>17,23; 27,95</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>13,71; 30,31</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>16,18; 24,25</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>16,01; 23,22</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>18,51; 31,9</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>15,14; 26,44</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1799,70 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>10,38; 35,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>6,88; 20,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>12,39; 31,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>5,01; 14,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>12,91; 28,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>7,01; 14,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>70,3%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>74,78%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>69,78%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>78,89%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>70,0%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>77,23%</t>
+          <t>16,71%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>18,57%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>16,09%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>13,66%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>13,15%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>17,9%</t>
         </is>
       </c>
     </row>
@@ -1875,32 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>55,42; 81,59</t>
+          <t>9,46; 23,27</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>64,93; 82,71</t>
+          <t>6,78; 15,62</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>58,87; 78,02</t>
+          <t>4,25; 12,99</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>71,67; 84,92</t>
+          <t>9,89; 27,88</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>61,12; 77,12</t>
+          <t>11,44; 23,44</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>71,36; 82,01</t>
+          <t>11,87; 22,52</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>11,73; 26,78</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>11,07; 26,11</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>11,62; 21,38</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>10,1; 17,34</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>9,5; 17,93</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>12,77; 23,82</t>
         </is>
       </c>
     </row>
@@ -1908,37 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>71,91%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>77,32%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>76,46%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>64,19%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>68,25%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>64,58%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>67,15%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>59,64%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>70,07%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>70,76%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>71,81%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>61,81%</t>
         </is>
       </c>
     </row>
@@ -1951,74 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>5,29; 17,95</t>
+          <t>63,08; 79,32</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>7,07; 20,6</t>
+          <t>69,43; 83,17</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>5,56; 15,97</t>
+          <t>68,67; 83,2</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>7,44; 18,22</t>
+          <t>52,97; 75,57</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>6,74; 15,28</t>
+          <t>59,22; 75,62</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>8,23; 17,13</t>
+          <t>57,24; 71,1</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>57,23; 75,39</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>50,15; 69,05</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>64,0; 75,56</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>65,45; 75,31</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>65,6; 77,16</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>54,68; 69,22</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>18,72%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>14,28%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>22,52%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>13,85%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>15,58%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>15,04%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>20,29%</t>
         </is>
       </c>
     </row>
@@ -2031,32 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>11,97; 18,96</t>
+          <t>7,53; 18,64</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>7,4; 11,82</t>
+          <t>7,84; 20,52</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>14,7; 20,3</t>
+          <t>10,22; 22,33</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>11,43; 15,3</t>
+          <t>9,62; 28,3</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>14,34; 18,91</t>
+          <t>9,48; 22,34</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>9,91; 12,83</t>
+          <t>13,51; 24,99</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>8,56; 22,68</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>14,82; 31,08</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>10,02; 18,41</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>11,71; 20,18</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>11,38; 20,24</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>14,82; 27,44</t>
         </is>
       </c>
     </row>
@@ -2064,37 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>74,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>79,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>66,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>69,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>70,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>74,26%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>70,26; 78,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>76,05; 82,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>63,62; 69,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>66,81; 72,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>67,6; 72,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>72,19; 76,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>9,68%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>13,44%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>12,5%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>19,13%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>10,16%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>13,77%</t>
         </is>
       </c>
     </row>
@@ -2183,48 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>7,98; 12,27</t>
+          <t>9,26; 34,97</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>9,3; 13,9</t>
+          <t>7,1; 21,15</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>14,01; 18,7</t>
+          <t>1,37; 16,62</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>15,04; 19,28</t>
+          <t>7,43; 28,83</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>11,61; 15,22</t>
+          <t>12,87; 32,3</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>12,75; 16,18</t>
+          <t>5,29; 14,97</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>7,3; 23,55</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 24,08</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>12,94; 27,4</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>7,34; 15,02</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>5,84; 16,11</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>8,09; 21,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>71,21%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>74,1%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>79,1%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>76,55%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>69,14%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>77,88%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>69,9%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>75,35%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>70,02%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>76,37%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>73,99%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>75,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>57,07; 81,78</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>63,62; 82,07</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>67,0; 88,98</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>62,51; 86,48</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>59,1; 77,87</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>68,84; 83,36</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>56,59; 79,09</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>60,19; 86,06</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>62,44; 77,43</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>70,56; 81,45</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>65,63; 81,3</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>66,33; 83,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>11,02%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>13,22%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>14,85%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>8,05%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>10,72%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>12,44%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>16,65%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>12,15%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>10,85%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>12,75%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>15,85%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>10,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 19,32</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>7,65; 21,5</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>7,5; 25,47</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>2,46; 17,28</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>6,24; 17,61</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>7,91; 20,0</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>9,51; 29,27</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 27,0</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>7,02; 15,44</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>8,99; 18,11</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>10,31; 24,48</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 18,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>14,8%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>9,42%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>10,6%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>14,07%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>17,08%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>13,26%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>16,06%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>15,98%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>11,42%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>13,37%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>14,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>11,81; 18,73</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>7,25; 11,92</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>7,97; 15,71</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>10,82; 18,54</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>14,61; 20,24</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 15,29</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>13,7; 18,8</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>11,28; 17,22</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>13,94; 18,23</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>9,88; 12,88</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>11,53; 15,98</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>11,58; 16,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>75,18%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>78,75%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>70,47%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>68,04%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>66,4%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>69,38%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>67,71%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>67,24%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>70,63%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>73,87%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>69,07%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>67,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>71,05; 78,8</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>75,57; 81,87</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>63,97; 75,7</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>62,47; 73,26</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>63,21; 69,36</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>66,82; 72,22</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>64,07; 70,8</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>62,27; 71,02</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>67,87; 72,97</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>71,72; 75,82</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>65,32; 72,07</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>64,09; 71,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>10,02%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>11,83%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>18,93%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>17,89%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>16,52%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>17,36%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>16,23%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>18,83%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>13,39%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>14,71%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>17,56%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>18,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>8,03; 12,43</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>9,61; 14,69</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>14,82; 26,51</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>14,06; 22,64</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>14,13; 19,27</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>15,38; 19,61</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>13,76; 19,2</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>15,36; 22,82</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>11,81; 15,16</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>13,12; 16,53</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>15,13; 21,46</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>15,77; 21,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P23_11-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_11-Edad-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1588,7 +1588,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1720,7 +1720,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1988,7 +1988,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2120,7 +2120,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2388,7 +2388,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2520,7 +2520,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2788,7 +2788,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2920,7 +2920,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3188,7 +3188,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3320,7 +3320,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
